--- a/data/trans_dic/P21_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que le ha resultado bastante o muy difícil la situación de confinamiento durante el último mes</t>
+          <t>Población que le ha resultado bastante o muy difícil la situación de confinamiento durante el último mes (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>35,71%</t>
+          <t>30,55%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,4%</t>
+          <t>32,5%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,42%</t>
+          <t>28,85%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>33,83%</t>
+          <t>31,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,17%</t>
+          <t>25,09%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,96; 42,96</t>
+          <t>20,16; 40,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,53; 33,03</t>
+          <t>10,98; 42,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,29; 37,21</t>
+          <t>23,76; 41,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,59; 32,01</t>
+          <t>21,83; 36,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,72; 37,73</t>
+          <t>25,12; 38,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,77; 30,16</t>
+          <t>19,47; 34,62</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,62%</t>
+          <t>19,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,57%</t>
+          <t>25,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>23,6%</t>
+          <t>22,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>18,5%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,92; 26,08</t>
+          <t>14,8; 26,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,53; 20,62</t>
+          <t>12,97; 25,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,37; 28,95</t>
+          <t>20,32; 31,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,12; 21,59</t>
+          <t>15,41; 23,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,1; 26,54</t>
+          <t>18,61; 26,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,73; 19,84</t>
+          <t>15,48; 22,48</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>20,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>15,92%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>22,68%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>24,54%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>22,03%</t>
+          <t>21,73%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,31%</t>
+          <t>20,38%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,2; 27,38</t>
+          <t>14,98; 27,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,5; 23,29</t>
+          <t>11,36; 22,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,82; 25,56</t>
+          <t>17,53; 28,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,16; 27,2</t>
+          <t>20,02; 29,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,36; 25,43</t>
+          <t>17,88; 25,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,4; 23,33</t>
+          <t>17,22; 24,49</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>26,28%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>18,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>26,01%</t>
+          <t>26,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21,53%</t>
+          <t>22,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,28%</t>
+          <t>26,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>20,46%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,84; 27,58</t>
+          <t>22,82; 30,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,72; 20,71</t>
+          <t>15,16; 23,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,67; 28,3</t>
+          <t>23,49; 29,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,26; 23,72</t>
+          <t>18,36; 25,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,46; 27,31</t>
+          <t>23,88; 28,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,81; 21,69</t>
+          <t>17,96; 23,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>24,54%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18,04%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>26,02%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>22,69%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>25,3%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>20,41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>21,78; 27,28</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15,61; 21,48</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>23,74; 28,29</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>20,59; 25,24</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>23,53; 27,16</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>18,63; 22,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que le ha resultado bastante o muy difícil la situación de confinamiento durante el último mes (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>69189</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>69249</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>85057</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>121681</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>154247</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>190931</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>45665; 91188</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>37244; 143462</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>62181; 109454</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>92059; 155978</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>122622; 188729</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>148160; 263426</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>127216</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>161824</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>180572</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>194508</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>307788</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>356332</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>96307; 172546</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>120426; 235243</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>145283; 225609</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>153621; 238827</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>254223; 359461</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>298234; 432881</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>93924</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>113892</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>120590</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>188727</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>214514</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>302619</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>68240; 125214</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>81262; 158180</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>93185; 150423</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>153982; 224195</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>176561; 256252</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>255725; 363671</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>425.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>555566</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>274724</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>550134</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>307669</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1105700</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>582393</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>482496; 645676</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>220248; 344198</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>490983; 619322</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>255787; 362071</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1004036; 1212947</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>511225; 670920</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>302.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>404.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>303.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>706.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>494.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>845896</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>619690</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>936353</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>812586</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1782249</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1432276</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>751016; 940452</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>536239; 738012</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>854216; 1018012</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>737584; 904006</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1657893; 1913899</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1307478; 1579028</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>